--- a/rclif_data/lab_name_lab_group_units.xlsx
+++ b/rclif_data/lab_name_lab_group_units.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kavenchhikara/Desktop/RCLIF_python/CLIF/rclif_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65598773-9974-F349-9AA6-9B632910C3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58480751-D6BE-C547-A5D8-DBC7FBE0C3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="15040" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lab_name_lab_group" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="110">
   <si>
     <t>CBC</t>
   </si>
@@ -358,6 +358,12 @@
   </si>
   <si>
     <t>delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notes </t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -970,7 +976,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,6 +1005,9 @@
     <xf numFmtId="0" fontId="0" fillId="43" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1362,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="142" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1386,6 +1395,12 @@
       </c>
       <c r="D1" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
